--- a/trunk/jett-core/templates/ImplCloningNormalTemplate.xlsx
+++ b/trunk/jett-core/templates/ImplCloningNormalTemplate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\files\subv\jett\jett-core\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22995" windowHeight="10800"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="22992" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Static1" sheetId="2" r:id="rId1"/>
@@ -12,13 +17,14 @@
     <sheet name="Static2" sheetId="3" r:id="rId3"/>
     <sheet name="${dvs.name}$@l=0" sheetId="4" r:id="rId4"/>
     <sheet name="Static3" sheetId="5" r:id="rId5"/>
+    <sheet name="${dvs.name}$@l=1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>City</t>
   </si>
@@ -212,6 +218,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -259,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,12 +516,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -533,13 +542,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -548,7 +557,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -582,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -590,27 +599,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -634,12 +643,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -653,6 +662,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -660,13 +754,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -675,7 +769,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -709,7 +803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -723,16 +817,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>